--- a/Final_project/Pseudo_Entropy/N20_C1_1_C2_1_m1_1e-5_m2_1e-5.xlsx
+++ b/Final_project/Pseudo_Entropy/N20_C1_1_C2_1_m1_1e-5_m2_1e-5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,106 +447,202 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.376549034422664</v>
+        <v>2.703210393487758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.492552879723646</v>
+        <v>3.685605896213872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.836204648261278</v>
+        <v>4.808714699194712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.91507390090674</v>
+        <v>6.179688803185237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.60002552194116</v>
+        <v>7.828391614246619</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9464741111992</v>
+        <v>9.757774171037751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.82242805389773</v>
+        <v>18.34114989882866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.76556223948572</v>
+        <v>31.57381351071962</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.06661531689574</v>
+        <v>46.09718945501663</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>47.90296540659567</v>
+        <v>54.21532050965805</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>51.38843424950858</v>
+        <v>63.05543460150742</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>54.59990951372681</v>
+        <v>69.83797480852837</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>76.59398342140355</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B14" t="n">
-        <v>57.5916262691922</v>
+      <c r="B15" t="n">
+        <v>82.7071756256816</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>88.21487006895961</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>93.45938995555109</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>98.3922653327258</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>103.0259054439833</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>107.388604342203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>111.51067512382</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>115.4201433193345</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>119.1416483455831</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>122.696443983071</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>126.1027511078279</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>129.3761862895616</v>
       </c>
     </row>
   </sheetData>
